--- a/Modelos em Python/erros_modelos_desejados.xlsx
+++ b/Modelos em Python/erros_modelos_desejados.xlsx
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="D44" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1959,13 +1959,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="E60" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>

--- a/Modelos em Python/erros_modelos_desejados.xlsx
+++ b/Modelos em Python/erros_modelos_desejados.xlsx
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="E13" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="D26" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="E27" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="E28" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="E29" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="D44" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1959,13 +1959,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
